--- a/data/stem_areas.xlsx
+++ b/data/stem_areas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fee11cc63ecbdcc7/Desktop/drought_experiment/chaparral_seedling_drought_responses/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9865079-A567-4461-B87B-E88EE721E5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{D9865079-A567-4461-B87B-E88EE721E5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AE52F08-0330-4C35-90AE-42BC81B8C8BF}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{EDD90EDE-0F2E-4FFF-A43F-815E4C112AF8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>ceol</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>length_mm</t>
+  </si>
+  <si>
+    <t>hear</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBEA06F-94CE-495A-954A-F348D96E0B2E}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -561,7 +564,7 @@
         <v>77.14</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C17">
         <v>1.1200000000000001</v>
       </c>
@@ -569,7 +572,7 @@
         <v>98.27</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C18">
         <v>1.28</v>
       </c>
@@ -577,7 +580,7 @@
         <v>83.02</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C19">
         <v>1.03</v>
       </c>
@@ -585,7 +588,7 @@
         <v>61.63</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C20">
         <v>1.1499999999999999</v>
       </c>
@@ -593,7 +596,7 @@
         <v>35.78</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C21">
         <v>0.98</v>
       </c>
@@ -601,7 +604,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C22">
         <v>1.02</v>
       </c>
@@ -609,7 +612,7 @@
         <v>72.86</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C23">
         <v>0.96</v>
       </c>
@@ -617,7 +620,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C24">
         <v>0.95</v>
       </c>
@@ -625,7 +628,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C25">
         <v>0.46</v>
       </c>
@@ -633,7 +636,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C26">
         <v>0.86</v>
       </c>
@@ -641,12 +644,222 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C27">
         <v>1.23</v>
       </c>
       <c r="D27">
         <v>15.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="D28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2.4975000000000001</v>
+      </c>
+      <c r="D29">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>2.7475000000000001</v>
+      </c>
+      <c r="D30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="D31">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="D32">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>4.04</v>
+      </c>
+      <c r="D33">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="D34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="D35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>3.9575</v>
+      </c>
+      <c r="D36">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>3.2275</v>
+      </c>
+      <c r="D37">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>3.415</v>
+      </c>
+      <c r="D38">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>2.5775000000000001</v>
+      </c>
+      <c r="D39">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>3.0474999999999999</v>
+      </c>
+      <c r="D40">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>3.1875</v>
+      </c>
+      <c r="D41">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>3.9775</v>
+      </c>
+      <c r="D42">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
